--- a/TestData/User_Import.xlsx
+++ b/TestData/User_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFLOW PLAYWRIGHT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BBA6B-FB28-4116-BD9B-EF855DB62D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB80F6CD-3D32-4E22-A3FB-3FB00447E17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -52,13 +52,31 @@
     <t>importuser1@yopmail.com</t>
   </si>
   <si>
-    <t>import user 18</t>
-  </si>
-  <si>
-    <t>importuser28</t>
-  </si>
-  <si>
-    <t>IM18</t>
+    <t>import user 19</t>
+  </si>
+  <si>
+    <t>importuser29</t>
+  </si>
+  <si>
+    <t>IM19</t>
+  </si>
+  <si>
+    <t>import user 20</t>
+  </si>
+  <si>
+    <t>importuser30</t>
+  </si>
+  <si>
+    <t>IM20</t>
+  </si>
+  <si>
+    <t>import user 21</t>
+  </si>
+  <si>
+    <t>importuser31</t>
+  </si>
+  <si>
+    <t>IM21</t>
   </si>
 </sst>
 </file>
@@ -548,9 +566,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -926,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,19 +990,65 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>9994397433</v>
+        <v>9994397434</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9994397435</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>9994397436</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/TestData/User_Import.xlsx
+++ b/TestData/User_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFLOW PLAYWRIGHT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB80F6CD-3D32-4E22-A3FB-3FB00447E17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED9387C-C6EA-4C77-9248-B1D9606B01A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -43,47 +43,29 @@
     <t>Department</t>
   </si>
   <si>
+    <t>importuser22@yopmail.com</t>
+  </si>
+  <si>
     <t>QA</t>
   </si>
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>importuser1@yopmail.com</t>
-  </si>
-  <si>
-    <t>import user 19</t>
-  </si>
-  <si>
-    <t>importuser29</t>
-  </si>
-  <si>
-    <t>IM19</t>
-  </si>
-  <si>
-    <t>import user 20</t>
-  </si>
-  <si>
-    <t>importuser30</t>
-  </si>
-  <si>
-    <t>IM20</t>
-  </si>
-  <si>
-    <t>import user 21</t>
-  </si>
-  <si>
-    <t>importuser31</t>
-  </si>
-  <si>
-    <t>IM21</t>
+    <t>import user 33</t>
+  </si>
+  <si>
+    <t>importuser43</t>
+  </si>
+  <si>
+    <t>IM33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +202,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -565,11 +555,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -603,6 +595,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -943,18 +936,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -990,70 +983,27 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <v>9994397434</v>
+        <v>9994397448</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>9994397435</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>9994397436</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{53E92482-8520-41ED-AA5F-6B1E8A58BBE6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/User_Import.xlsx
+++ b/TestData/User_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFLOW PLAYWRIGHT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED9387C-C6EA-4C77-9248-B1D9606B01A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0188C-630A-4048-9391-52148A0B9B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -43,22 +43,34 @@
     <t>Department</t>
   </si>
   <si>
-    <t>importuser22@yopmail.com</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>import user 33</t>
-  </si>
-  <si>
-    <t>importuser43</t>
-  </si>
-  <si>
-    <t>IM33</t>
+    <t>IM40</t>
+  </si>
+  <si>
+    <t>import user 1</t>
+  </si>
+  <si>
+    <t>importuser01</t>
+  </si>
+  <si>
+    <t>importuser01@yopmail.com</t>
+  </si>
+  <si>
+    <t>import user 2</t>
+  </si>
+  <si>
+    <t>importuser02</t>
+  </si>
+  <si>
+    <t>IM41</t>
+  </si>
+  <si>
+    <t>importuser02@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,25 +996,49 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>9994397455</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>9994397448</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9994397456</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{53E92482-8520-41ED-AA5F-6B1E8A58BBE6}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7B87EC0-BE81-4F1E-953D-51240D2EC6D3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C5E9F836-2153-49FC-BCF5-556DE3585FE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
